--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,97 +43,100 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,31 +581,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,37 +613,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>178</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>114</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7727272727272727</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C5">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3175965665236051</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,69 +731,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>159</v>
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
+      </c>
+      <c r="M6">
+        <v>96</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9375</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,21 +781,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,21 +807,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,21 +833,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +859,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -911,16 +890,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L14">
         <v>25</v>
       </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
       <c r="M14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.717948717948718</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7083333333333334</v>
+        <v>0.6625</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.696969696969697</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.684931506849315</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0.625</v>
+      </c>
+      <c r="L19">
         <v>30</v>
       </c>
-      <c r="K19">
-        <v>0.68</v>
-      </c>
-      <c r="L19">
-        <v>17</v>
-      </c>
       <c r="M19">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5862068965517241</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5446009389671361</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L22">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="M22">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5357142857142857</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L25">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4857142857142857</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4573643410852713</v>
+        <v>0.4</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,33 +1301,85 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="L28">
-        <v>42</v>
-      </c>
-      <c r="M28">
-        <v>42</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>50</v>
+      <c r="K29">
+        <v>0.3347280334728033</v>
+      </c>
+      <c r="L29">
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <v>80</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>0.88</v>
+      </c>
+      <c r="O30">
+        <v>0.12</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>3074</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,81 +46,87 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -130,10 +136,16 @@
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -494,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6095890410958904</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C4">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D4">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1904761904761905</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>153</v>
+        <v>407</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.187984496124031</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>419</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,21 +767,45 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.1798941798941799</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>155</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,21 +817,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7926829268292683</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7666666666666667</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7446808510638298</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7253521126760564</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6944444444444444</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L15">
         <v>25</v>
       </c>
-      <c r="K15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L15">
-        <v>34</v>
-      </c>
       <c r="M15">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6625</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.660377358490566</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1098,16 +1134,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L20">
         <v>30</v>
       </c>
-      <c r="K20">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="L20">
-        <v>39</v>
-      </c>
       <c r="M20">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6063829787234043</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5378590078328982</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.4735294117647059</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L23">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="M23">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4719101123595505</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4440677966101695</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L25">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.410958904109589</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3461538461538461</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3347280334728033</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L29">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M29">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1353,33 +1389,111 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.009345794392523364</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.03691275167785235</v>
+      </c>
+      <c r="L31">
         <v>33</v>
       </c>
-      <c r="N30">
-        <v>0.88</v>
-      </c>
-      <c r="O30">
-        <v>0.12</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>3074</v>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.01634750116767866</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>0.95</v>
+      </c>
+      <c r="O32">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.009658725048293626</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>0.97</v>
+      </c>
+      <c r="O33">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
